--- a/biology/Botanique/Arnoldo_Santos_Guerra/Arnoldo_Santos_Guerra.xlsx
+++ b/biology/Botanique/Arnoldo_Santos_Guerra/Arnoldo_Santos_Guerra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnoldo Santos Guerra (Villa de Mazo, La Palma (îles Canaries), 1948) est un botaniste espagnol. Il a développé des activités académiques au Jardin d'acclimatation de La Orotava et à l'Institut de recherche et de technologie agricole Retama de Tenerife, en tant que chef de l'unité botanique du jardin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l' Université de La Laguna, il a obtenu une licence en géographie et en histoire et un doctorat en biologie avec une thèse sur la végétation et la flore de La Palma. À partir de 1974, il a été chercheur à l'Institut de recherche agricole des Canaries, où il a ensuite été nommé chef de l'unité de botanique et responsable de l'acclimatation du jardin de La Orotava.
 Il a pris sa retraite en 2013, bien que ses travaux de recherche aient continué après cette année.
